--- a/Excel/2021/2021_18_weely.xlsx
+++ b/Excel/2021/2021_18_weely.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="起床等级划分" sheetId="2" r:id="rId1"/>
-    <sheet name="习惯卡woop" sheetId="3" r:id="rId2"/>
-    <sheet name="2021年的第 29 周" sheetId="1" r:id="rId3"/>
+    <sheet name="作息习惯卡woop" sheetId="3" r:id="rId1"/>
+    <sheet name="下班浪费3小时计划 " sheetId="5" r:id="rId2"/>
+    <sheet name="起床等级划分" sheetId="2" r:id="rId3"/>
+    <sheet name="2021年的第 30" sheetId="4" r:id="rId4"/>
+    <sheet name="2021年的第 29 周" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -438,12 +440,222 @@
     <t>下班最重要第一个事情：1 手机放客厅0o，2 吃饭专项吃饭，索赔 做一般，心存幻想  30分钟 3 休息 手机放电脑包里，手里拿浙江舍不得 在地铁想起阿里，关键时候最苦难一次不行，多次 4 学习时候手机客厅 睡前 准备60分钟，感觉吃力5朗读没开启</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>复盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年7月30日 10:49:12
+小王的起床待办清单
+计划：6点：
+实际：9：30
+结果：上班迟到，耽误一切学习 运动计划。
+回溯：
+ * 
+回家躺在床上看手机，耽误学习其他事情
+ * 
+半夜起来看电脑，然后解锁，
+ * 
+已解锁彻底失控。
+认知提升
+：电脑自动关机 这个限制没有任何用车，虚假的，还是好自己。
+反而这个就是更更加堕落开始
+解决办法：
+什么都不做就是最好选择。环境不看手机 电脑
+你强行看没有好处。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23点看及技术文字半夜谁不着，你改成写代码，看理论10年毫无效果。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解决办法：改为写代码，你已经把手机和电脑放到客厅做很好了
+但是手机和电脑变成美杜莎，变成可怜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为解决问题（胡萝卜）
+然后你沉重大脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，抵抗啥（大棒）让你做
+一次就是一本子。
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已经把手机和电脑放到客厅做很好了
+但是手机和电脑变成美杜莎，变成可怜 装作 为解决问题（胡萝卜）
+然后你沉重大脑 ，抵抗啥（大棒）让你做
+一次就是一本子。
+下班最重要第一个事情：1 手机放客厅0o，2 吃饭专项吃饭，索赔 做一般，心存幻想  30分钟 3 休息 手机放电脑包里，手里拿浙江舍不得 在地铁想起阿里，关键时候最苦难一次不行，多次 4 学习时候手机客厅 睡前 准备60分钟，感觉吃力5朗读没开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+期望：周五周六 周天 三天电脑放公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-21:00 手机电脑电子书同时离开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22：00 23点 固定睡眠时间 ，6点固定起床。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-19：00回家充电线和手机放客厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年的第 30 周</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上8点下班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7点下班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上6点下班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上5点下班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘与沟通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪费60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡前朗读60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由安排</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +777,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -769,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -846,115 +1066,10 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -967,6 +1082,60 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,6 +1145,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -985,6 +1187,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1265,6 +1498,581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="41"/>
+    </row>
+    <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+    </row>
+    <row r="40" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="13" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="77">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D1" s="77">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="77">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F1" s="77">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G1" s="77">
+        <v>0.875</v>
+      </c>
+      <c r="H1" s="77">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I1" s="77">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J1" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="K1" s="77">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="L1" s="77">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M1" s="77">
+        <v>0.375</v>
+      </c>
+      <c r="N1" s="77">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1304,19 +2112,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="35" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1327,13 +2135,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -1342,19 +2150,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="32" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1365,13 +2173,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -1380,17 +2188,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1401,13 +2209,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -1416,19 +2224,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="32" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -1439,13 +2247,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -1454,48 +2262,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -1511,14 +2327,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,326 +2334,290 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="64" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-    </row>
-    <row r="40" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="66" t="s">
-        <v>127</v>
-      </c>
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="74"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="57"/>
+      <c r="B8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+    </row>
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="59"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="57"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="57"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="59"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="59"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="60"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+  <mergeCells count="25">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1853,12 +2625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1873,13 +2645,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1887,36 +2659,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="73" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1924,15 +2696,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1946,7 +2718,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1958,7 +2730,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -1966,23 +2738,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1991,57 +2763,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="58" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="58"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="58"/>
+      <c r="D17" s="59"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2058,57 +2830,63 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="50" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2116,18 +2894,12 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2021/2021_18_weely.xlsx
+++ b/Excel/2021/2021_18_weely.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="作息习惯卡woop" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="159">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -648,6 +648,10 @@
   </si>
   <si>
     <t>自由安排</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控的念头：我要看手机--趟在床看手机--香精一切办法看手机--看看呗小时腾讯视频</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1082,58 +1086,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1145,79 +1195,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1527,18 +1531,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -1563,18 +1567,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -1589,18 +1593,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -1631,48 +1635,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -1701,22 +1705,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="41"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -1788,6 +1792,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -1800,22 +1820,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1827,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1852,40 +1856,40 @@
       <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="77">
+      <c r="C1" s="33">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D1" s="77">
+      <c r="D1" s="33">
         <v>0.75</v>
       </c>
-      <c r="E1" s="77">
+      <c r="E1" s="33">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F1" s="77">
+      <c r="F1" s="33">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G1" s="77">
+      <c r="G1" s="33">
         <v>0.875</v>
       </c>
-      <c r="H1" s="77">
+      <c r="H1" s="33">
         <v>0.91666666666666663</v>
       </c>
-      <c r="I1" s="77">
+      <c r="I1" s="33">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J1" s="77">
+      <c r="J1" s="33">
         <v>0.25</v>
       </c>
-      <c r="K1" s="77">
+      <c r="K1" s="33">
         <v>0.29166666666666669</v>
       </c>
-      <c r="L1" s="77">
+      <c r="L1" s="33">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M1" s="77">
+      <c r="M1" s="33">
         <v>0.375</v>
       </c>
-      <c r="N1" s="77">
+      <c r="N1" s="33">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -2112,19 +2116,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="45" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -2135,13 +2139,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -2150,19 +2154,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="43" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2173,13 +2177,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -2188,17 +2192,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2209,13 +2213,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -2224,19 +2228,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="43" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -2247,13 +2251,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -2262,56 +2266,48 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="43" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -2327,6 +2323,14 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2338,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2355,13 +2359,13 @@
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>137</v>
       </c>
       <c r="E1" t="s">
@@ -2372,36 +2376,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="74"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="76"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -2409,15 +2413,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -2431,7 +2435,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -2442,8 +2446,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -2451,82 +2455,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="59"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="56"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="58"/>
+      <c r="E14">
+        <f>B14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A15" s="56"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="59"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A16" s="56"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="59"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="60"/>
+      <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -2543,56 +2543,70 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="32" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2604,20 +2618,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2645,13 +2645,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2659,36 +2659,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="74"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2696,15 +2696,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -2738,23 +2738,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2763,57 +2763,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="57" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="59"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="59"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="59"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="60"/>
+      <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2830,51 +2830,69 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="66" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -2882,24 +2900,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2021/2021_18_weely.xlsx
+++ b/Excel/2021/2021_18_weely.xlsx
@@ -10,8 +10,9 @@
     <sheet name="作息习惯卡woop" sheetId="3" r:id="rId1"/>
     <sheet name="下班浪费3小时计划 " sheetId="5" r:id="rId2"/>
     <sheet name="起床等级划分" sheetId="2" r:id="rId3"/>
-    <sheet name="2021年的第 30" sheetId="4" r:id="rId4"/>
-    <sheet name="2021年的第 29 周" sheetId="1" r:id="rId5"/>
+    <sheet name="每天" sheetId="6" r:id="rId4"/>
+    <sheet name="2021年的第 30" sheetId="4" r:id="rId5"/>
+    <sheet name="2021年的第 29 周" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -654,12 +655,246 @@
     <t>失控的念头：我要看手机--趟在床看手机--香精一切办法看手机--看看呗小时腾讯视频</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>检测清单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关：晚上专注吃饭，远离手机20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关：地铁专注放松，远离手机20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关：回小区专注跑步，手机锁屏一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五关：回家手机房客厅：手机锁屏20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第六关：回家专注休息，手机放客厅 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一关：中午专注吃饭，远离手机20分钟 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第七关：22点睡前 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七关：22点睡前 ，手机放客厅 锁屏20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六关：21点回家专注休息，手机放客厅 ，锁屏20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一关：12点中午专注吃饭，远离手机20分钟 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关：6点晚上专注吃饭，远离手机20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关：7点地铁专注放松，远离手机20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关：19点回小区专注跑步，手机锁屏一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五关：20点回家手机房第一时间客厅：手机锁屏20分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八关：23点睡 手机一定放客厅，任何消息，音乐摄取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动名义手机放客厅 45分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动名义手机放我手 45分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍不住吃饭看手机 45分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡前：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太困，无法起床</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到公司10点了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次没做到，下次必然做不到，没控制住看扫黑【关闭wifie】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅拿卧室：彻底失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁看45分钟，120分钟到凌晨2点xx小说 视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2点：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁看45分钟，120分钟到凌晨2点xx小说 【解锁后失控】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉到了，但是自己太困，根本不舍得起床 ，更加难受</t>
+  </si>
+  <si>
+    <t>感觉到了，但是自己太困，根本不舍得起床 ，更加难受</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:45:因为洗刷--我看手机---手机我卧室--后面彻底失控</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一步：6点 马上穿衣服洗刷，15分钟完成
+这是0意志力，在困也不能拖延。离开床
+地铁/冥想/中午 补睡觉的时间
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步：6：15 跟着keep活动6：15到7：00 跑步4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步：7：00阅读 30分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五步：7：30 吃饭 地铁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六步：最后一公里10分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七步：8:50-10:30点，每天坚持写代码100分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机控解锁：21 22 23 0点 一个个全部解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城解锁--下载浏览器--看免费动漫 电视剧综艺界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信解锁---动漫 电视剧综艺界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1fox打开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌浏览器 打卡青少年模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb打卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest打开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索免费的视频看免费动漫 电视剧综艺界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>youtue打开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ 电脑放公司 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上4点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第 34 周，8月份的第 3 周 8/20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖看视频 扫黑风暴 15集 8小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九关：0-3点 放弃任何事情，包括看手机 和学习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖前一天4点睡感觉没什么，第二天头疼疲累</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 不要用意志力控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,8 +1027,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,8 +1119,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -989,11 +1258,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1090,6 +1383,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="19" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1222,9 +1521,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="3" builtinId="11"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1504,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1531,18 +1848,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -1567,18 +1884,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -1593,18 +1910,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -1635,48 +1952,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -1705,22 +2022,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -2080,7 +2397,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="E1:F1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2116,19 +2433,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -2139,13 +2456,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -2154,19 +2471,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="49" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2177,13 +2494,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -2192,17 +2509,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2213,13 +2530,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -2228,19 +2545,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="49" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -2251,13 +2568,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -2266,45 +2583,45 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2340,11 +2657,372 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B15:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="35">
+        <v>44425</v>
+      </c>
+      <c r="D1" s="35">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="36"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2359,13 +3037,13 @@
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>137</v>
       </c>
       <c r="E1" t="s">
@@ -2376,36 +3054,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="81" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="82"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -2413,15 +3091,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -2435,7 +3113,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +3125,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -2455,78 +3133,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="58" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="64"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="58"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="58"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -2543,42 +3221,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="72" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="60" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -2586,10 +3264,50 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2625,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -2645,13 +3363,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="79" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2659,36 +3377,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="81" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="82"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2696,15 +3414,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2718,7 +3436,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2730,7 +3448,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -2738,23 +3456,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="58" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2763,57 +3481,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="58"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="58"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2830,51 +3548,54 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="72" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2888,18 +3609,15 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2021/2021_18_weely.xlsx
+++ b/Excel/2021/2021_18_weely.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="作息习惯卡woop" sheetId="3" r:id="rId1"/>
-    <sheet name="下班浪费3小时计划 " sheetId="5" r:id="rId2"/>
-    <sheet name="起床等级划分" sheetId="2" r:id="rId3"/>
-    <sheet name="每天" sheetId="6" r:id="rId4"/>
-    <sheet name="2021年的第 30" sheetId="4" r:id="rId5"/>
-    <sheet name="2021年的第 29 周" sheetId="1" r:id="rId6"/>
+    <sheet name="习惯卡" sheetId="8" r:id="rId1"/>
+    <sheet name="2分钟养成一习惯" sheetId="7" r:id="rId2"/>
+    <sheet name="作息习惯卡woop" sheetId="3" r:id="rId3"/>
+    <sheet name="下班浪费3小时计划 " sheetId="5" r:id="rId4"/>
+    <sheet name="起床等级划分" sheetId="2" r:id="rId5"/>
+    <sheet name="每天todo" sheetId="6" r:id="rId6"/>
+    <sheet name="2021年的第 30" sheetId="4" r:id="rId7"/>
+    <sheet name="2021年的第 29 周" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="301">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -688,30 +690,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第七关：22点睡前 ，手机放客厅 锁屏20分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六关：21点回家专注休息，手机放客厅 ，锁屏20分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">第一关：12点中午专注吃饭，远离手机20分钟 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二关：6点晚上专注吃饭，远离手机20分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三关：7点地铁专注放松，远离手机20分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四关：19点回小区专注跑步，手机锁屏一次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -720,10 +698,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第八关：23点睡 手机一定放客厅，任何消息，音乐摄取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>运动名义手机放客厅 45分钟</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -784,117 +758,473 @@
   </si>
   <si>
     <t>8:45:因为洗刷--我看手机---手机我卧室--后面彻底失控</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1fox打开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌浏览器 打卡青少年模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb打卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest打开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索免费的视频看免费动漫 电视剧综艺界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>youtue打开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ 电脑放公司 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上4点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第 34 周，8月份的第 3 周 8/20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖看视频 扫黑风暴 15集 8小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖前一天4点睡感觉没什么，第二天头疼疲累</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 不要用意志力控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第 34 周，8月份的第 3 周 8/21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ 电脑放公司 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 冥想20分钟一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 冥想20分钟一次 【只有这一步做到，后面才有】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关：6点晚上专注吃饭，远离手机20分钟【大boss】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关：7点地铁专注放松，远离手机20分钟【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关：19点回小区专注跑步，手机锁屏一次【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关：12点中午专注吃饭，远离手机20分钟  【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六关：21点家手机放客厅 ，锁屏20分钟 【二级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八关：23点睡 手机一定放客厅，任何消息，【三级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九关：0-3点 放弃任何事情，包括看手机 和学习【大boss】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步：6：15 跟着keep活动6：15到7：00 跑步4 【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步：7：00阅读 30分钟 【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五步：7：30 吃饭 地铁 【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六步：最后一公里10分钟【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七步：8:50-10:30点，每天坚持写代码100分钟 【二级怪兽】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">第一步：6点 马上穿衣服洗刷，15分钟完成
 这是0意志力，在困也不能拖延。离开床
-地铁/冥想/中午 补睡觉的时间
+地铁/冥想/中午 补睡觉的时间 【大boss 超级怪兽】
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第二步：6：15 跟着keep活动6：15到7：00 跑步4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三步：7：00阅读 30分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五步：7：30 吃饭 地铁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六步：最后一公里10分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七步：8:50-10:30点，每天坚持写代码100分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机控解锁：21 22 23 0点 一个个全部解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城解锁--下载浏览器--看免费动漫 电视剧综艺界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信解锁---动漫 电视剧综艺界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1fox打开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌浏览器 打卡青少年模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb打卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest打开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索免费的视频看免费动漫 电视剧综艺界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>youtue打开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ 电脑放公司 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上4点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年第 34 周，8月份的第 3 周 8/20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖看视频 扫黑风暴 15集 8小时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九关：0-3点 放弃任何事情，包括看手机 和学习</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖前一天4点睡感觉没什么，第二天头疼疲累</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 不要用意志力控制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>第七关：22点睡前 ，手机放客厅 锁屏20分钟 【大boss 超级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 延迟 3个小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 10点开始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 没时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖没时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖没时间 到公司12点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习区域--电脑：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动区-手机：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴上降噪耳机 +1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡专注种树软件+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>九点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第 35 周，8月份的第4 周 8/24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✔ </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 回家看电脑视频 一看23点：失控</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖回家看电脑视频 一看23点：失控</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">解决办法：晚上不带电脑回，创造一个良好环境 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第 35 周，8月份的第4 周 8/25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>极轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>床上跑鞋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行10分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>走一万步</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑5公里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑10公里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一句话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一段话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写1000子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写5000子文字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一本书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为早起者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上21点到家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每晚22点前关闭说有设备（笔记本，手机 电视 ）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每晚22点上床（读书，聊天）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四阶段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每晚22：30点关灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五节点：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天早晨6点起床</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：吃饭手机开启禅定模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：吃饭手机开启禅定模式，在点餐完毕开始 read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：到地铁手机开启禅定模式，放松一天疲累</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：在地铁最后一站，就要打开keep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：在回家提前手机放书包，开启禅定模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：学习期间，直接看课本，原理手机 诱惑最大</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺 ：你很困了，手机一定在客厅，不解锁 不解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺 ：睡不着去朗读</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：00，你昨天提前1小时，距离目标延迟2小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23：00 比昨天提前30分钟 😄，延迟60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：闹钟响起千万不愿意---&gt;马上穿衣，洗刷 目的运动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖承诺：先运动，后读书，7：30起床，延迟 60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖承诺  早晨一定吃早餐，连续一个月没吃了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：你8点出门 人太挤了， 说好7：30 一定马上起床</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺：去公园跑步 300米 ，这个很轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  预先承诺 9点32到公司 延迟60分钟.早晨写代码事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑一定放公司。周天也要放公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ ：吃饭 睡觉时候诱惑最大，客服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信解锁---动漫 电视剧综艺界面 【轻松】，不然看凌晨4点视频【很困难】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机控解锁：21 22 23 0点 一个个全部解锁 【轻松】，不然看凌晨4点视频【很困难】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城解锁--下载浏览器--看免费动漫 电视剧综艺界面【轻松】，不然看凌晨4点视频【很困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ ：关闭网络</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ ：打开倒计时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 这个无法做到，电脑放客厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  自动化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 手工开启，一个月没执行了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 在吃饭 ，睡觉，前3小时 出现念头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后悔失控6小时极度困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨4点视频，感冒，失去一切未来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨5点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨6点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨7点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨8点视频，感冒，失去一切未来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨9点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨10点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨11点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨12点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨13点视频，感冒，失去一切未来</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,8 +1381,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,8 +1467,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1273,8 +1616,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1285,8 +1655,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1388,158 +1761,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="21" fillId="14" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="21" fillId="14" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="14" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="19" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="14" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="4" builtinId="26"/>
     <cellStyle name="警告文本" xfId="3" builtinId="11"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
@@ -1819,9 +2222,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:A70"/>
     </sheetView>
   </sheetViews>
@@ -1848,18 +2405,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -1884,18 +2441,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -1910,18 +2467,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -1952,48 +2509,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="44"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -2022,22 +2579,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="44" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -2109,22 +2666,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -2137,6 +2678,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2144,12 +2701,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2185,7 +2742,7 @@
       <c r="F1" s="33">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G1" s="33">
+      <c r="G1" s="104">
         <v>0.875</v>
       </c>
       <c r="H1" s="33">
@@ -2194,7 +2751,7 @@
       <c r="I1" s="33">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J1" s="33">
+      <c r="J1" s="104">
         <v>0.25</v>
       </c>
       <c r="K1" s="33">
@@ -2229,7 +2786,7 @@
       <c r="F2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="91" t="s">
         <v>153</v>
       </c>
       <c r="H2" t="s">
@@ -2238,7 +2795,7 @@
       <c r="I2" t="s">
         <v>154</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="91" t="s">
         <v>155</v>
       </c>
       <c r="K2" t="s">
@@ -2273,7 +2830,7 @@
       <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="91" t="s">
         <v>153</v>
       </c>
       <c r="H3" t="s">
@@ -2282,7 +2839,7 @@
       <c r="I3" t="s">
         <v>154</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="91" t="s">
         <v>155</v>
       </c>
       <c r="K3" t="s">
@@ -2317,7 +2874,7 @@
       <c r="F4" t="s">
         <v>147</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="91" t="s">
         <v>153</v>
       </c>
       <c r="H4" t="s">
@@ -2326,7 +2883,7 @@
       <c r="I4" t="s">
         <v>154</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="91" t="s">
         <v>155</v>
       </c>
       <c r="K4" t="s">
@@ -2361,7 +2918,7 @@
       <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="91" t="s">
         <v>157</v>
       </c>
       <c r="H5" t="s">
@@ -2370,7 +2927,7 @@
       <c r="I5" t="s">
         <v>154</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="91" t="s">
         <v>155</v>
       </c>
       <c r="K5" t="s">
@@ -2392,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2433,19 +2990,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="56" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -2456,13 +3013,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -2471,19 +3028,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="53" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2494,13 +3051,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -2509,17 +3066,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2530,13 +3087,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -2545,19 +3102,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="53" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="53" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -2568,13 +3125,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -2583,48 +3140,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -2640,14 +3205,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2655,370 +3212,651 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.375" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="67.625" customWidth="1"/>
+    <col min="2" max="2" width="45.75" customWidth="1"/>
+    <col min="3" max="4" width="50.375" customWidth="1"/>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="47.875" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:7" s="91" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="35">
+      <c r="B1" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="94">
         <v>44425</v>
       </c>
-      <c r="D1" s="35">
+      <c r="G1" s="94">
         <v>44424</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="88">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D2" s="97">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="G9" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="37" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" s="91" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="90">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="36"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G12" s="89"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="C13" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="106" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="101"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="89"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="36"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" s="36"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>209</v>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
@@ -3037,13 +3875,13 @@
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="66" t="s">
         <v>137</v>
       </c>
       <c r="E1" t="s">
@@ -3054,36 +3892,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -3091,15 +3929,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -3113,7 +3951,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -3125,7 +3963,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -3133,78 +3971,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="68" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="64"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="76"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="64"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="64"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="65"/>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -3221,42 +4059,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="84" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="70" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -3264,10 +4102,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -3311,20 +4149,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -3336,6 +4160,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3343,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -3363,13 +4201,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3377,36 +4215,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3414,15 +4252,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3436,7 +4274,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -3448,7 +4286,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -3456,23 +4294,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="68" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3481,57 +4319,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="64"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="76"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="64"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="64"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="65"/>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3548,51 +4386,60 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="84" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="70" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -3609,15 +4456,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2021/2021_18_weely.xlsx
+++ b/Excel/2021/2021_18_weely.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="310">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -761,30 +761,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1fox打开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌浏览器 打卡青少年模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb打卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>forest打开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索免费的视频看免费动漫 电视剧综艺界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>youtue打开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">✔ 电脑放公司 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -944,14 +920,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>复盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">解决办法：晚上不带电脑回，创造一个良好环境 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2021年第 35 周，8月份的第4 周 8/25</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1136,10 +1104,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>电脑一定放公司。周天也要放公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>✔ ：吃饭 睡觉时候诱惑最大，客服</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1168,22 +1132,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>✔  自动化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 手工开启，一个月没执行了。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 在吃饭 ，睡觉，前3小时 出现念头</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻松</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>后悔失控6小时极度困难</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1205,19 +1153,111 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>✖凌晨9点视频，感冒，失去一切未来</t>
-  </si>
-  <si>
-    <t>✖凌晨10点视频，感冒，失去一切未来</t>
-  </si>
-  <si>
-    <t>✖凌晨11点视频，感冒，失去一切未来</t>
-  </si>
-  <si>
     <t>✖凌晨12点视频，感冒，失去一切未来</t>
   </si>
   <si>
+    <t>2021年第 35 周，8月份的第4 周 8/27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺 ：回家太晚 熬药导致23点30入睡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23：30 比昨天提前0分钟 😄，延迟90分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖   承诺 ：学习期间看50分钟综艺动漫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：30，你昨天提前-30分钟，距离目标延迟2小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 地铁 60分钟补睡，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：美杜莎诱惑也有解办法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测清单：小怪兽不解决，大boss打不到的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日起床故事：自己拖延一次，后面天天拖延 ，解决办法：在闹钟之前起床。小怪兽不解决，大boss打不到的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  在吃饭 ，睡觉，一个念头导致3小时看视频 打卡 forest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">youtue 看电影解锁 -100   ，解决办法：谷歌插件 +1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索免费的视频看免费动漫 电视剧综艺界面 -100  解决办法 &gt;打开 forest +0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌浏览器   解锁 安全搜索  失控：-100 ，解决办法关闭电脑  完成次数+0·</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>✖凌晨13点视频，感冒，失去一切未来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅区--吃饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题1：边吃饭遍看电脑和手机 -1000次，解决办法：手机和电脑必须拿走</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第 36 周，9月份的第1 周 9/2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：30 比昨天提前0分钟 😄，延迟90分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：30，你昨天提前-30分钟，距离目标延迟2小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法：18点准时下班      今日睡眠故事：电脑带回家，学习目的忘记一干二净，然后看一会，变成看3小时视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法：18点准时下班      今日睡眠故事：21点加班三小时，第二天迟到三小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 地铁 60分钟补睡，【听不到闹钟声音，无法起床】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1659,7 +1699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1762,145 +1802,12 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="19" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="11" xfId="4" applyBorder="1" applyAlignment="1"/>
@@ -1922,22 +1829,159 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="21" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -2237,50 +2281,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2309,63 +2353,63 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
         <v>233</v>
       </c>
-      <c r="B1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" t="s">
-        <v>241</v>
-      </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A59" sqref="A59:A70"/>
     </sheetView>
   </sheetViews>
@@ -2405,18 +2449,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -2441,18 +2485,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -2467,18 +2511,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -2509,48 +2553,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="48"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="68"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -2579,22 +2623,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="64" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="44"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -2742,7 +2786,7 @@
       <c r="F1" s="33">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G1" s="104">
+      <c r="G1" s="55">
         <v>0.875</v>
       </c>
       <c r="H1" s="33">
@@ -2751,7 +2795,7 @@
       <c r="I1" s="33">
         <v>0.95833333333333337</v>
       </c>
-      <c r="J1" s="104">
+      <c r="J1" s="55">
         <v>0.25</v>
       </c>
       <c r="K1" s="33">
@@ -2786,7 +2830,7 @@
       <c r="F2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="46" t="s">
         <v>153</v>
       </c>
       <c r="H2" t="s">
@@ -2795,7 +2839,7 @@
       <c r="I2" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="46" t="s">
         <v>155</v>
       </c>
       <c r="K2" t="s">
@@ -2830,7 +2874,7 @@
       <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="46" t="s">
         <v>153</v>
       </c>
       <c r="H3" t="s">
@@ -2839,7 +2883,7 @@
       <c r="I3" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="46" t="s">
         <v>155</v>
       </c>
       <c r="K3" t="s">
@@ -2874,7 +2918,7 @@
       <c r="F4" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="46" t="s">
         <v>153</v>
       </c>
       <c r="H4" t="s">
@@ -2883,7 +2927,7 @@
       <c r="I4" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="46" t="s">
         <v>155</v>
       </c>
       <c r="K4" t="s">
@@ -2918,7 +2962,7 @@
       <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="46" t="s">
         <v>157</v>
       </c>
       <c r="H5" t="s">
@@ -2927,7 +2971,7 @@
       <c r="I5" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="91" t="s">
+      <c r="J5" s="46" t="s">
         <v>155</v>
       </c>
       <c r="K5" t="s">
@@ -2990,19 +3034,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="73" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="76" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -3013,13 +3057,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -3028,19 +3072,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="73" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -3051,13 +3095,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -3066,17 +3110,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="73" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -3087,13 +3131,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -3102,19 +3146,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="73" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="73" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -3125,13 +3169,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -3140,45 +3184,45 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="73" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3214,641 +3258,807 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.625" customWidth="1"/>
-    <col min="2" max="2" width="45.75" customWidth="1"/>
-    <col min="3" max="4" width="50.375" customWidth="1"/>
-    <col min="5" max="5" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="47.875" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="63.875" customWidth="1"/>
+    <col min="2" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="45.75" customWidth="1"/>
+    <col min="5" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="47.875" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="91" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="94">
+    <row r="1" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="49">
         <v>44425</v>
       </c>
-      <c r="G1" s="94">
+      <c r="I1" s="49">
         <v>44424</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="88">
+        <v>304</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="43">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D2" s="97">
+      <c r="F2" s="52">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="G4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="I4" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="I5" s="36" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="I6" s="36" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="E18" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B20" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" s="91" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="90">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="89"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="36" t="s">
+      <c r="B30" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="36" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="101"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" s="89" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="C32" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="B25" s="36" t="s">
+      <c r="E32" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="89" t="s">
-        <v>293</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="B26" s="36" t="s">
+      <c r="E33" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="C26" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="89" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="C32" s="36" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
+        <v>300</v>
+      </c>
       <c r="E34" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36" t="s">
-        <v>191</v>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="A12:D13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3875,13 +4085,13 @@
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="90" t="s">
         <v>137</v>
       </c>
       <c r="E1" t="s">
@@ -3892,36 +4102,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="96" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="73"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="97"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -3929,15 +4139,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -3951,7 +4161,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -3963,7 +4173,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -3971,78 +4181,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="92" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="76"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="100"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="76"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="77"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -4059,42 +4269,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="108" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="94" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -4102,10 +4312,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -4201,13 +4411,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4215,36 +4425,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="96" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="73"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="97"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4252,15 +4462,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4274,7 +4484,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4286,7 +4496,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -4294,23 +4504,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="92" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4319,57 +4529,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="76"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="76"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="77"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -4386,48 +4596,48 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="94" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/Excel/2021/2021_18_weely.xlsx
+++ b/Excel/2021/2021_18_weely.xlsx
@@ -4,18 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="习惯卡" sheetId="8" r:id="rId1"/>
-    <sheet name="2分钟养成一习惯" sheetId="7" r:id="rId2"/>
-    <sheet name="作息习惯卡woop" sheetId="3" r:id="rId3"/>
-    <sheet name="下班浪费3小时计划 " sheetId="5" r:id="rId4"/>
-    <sheet name="起床等级划分" sheetId="2" r:id="rId5"/>
-    <sheet name="每天todo" sheetId="6" r:id="rId6"/>
-    <sheet name="2021年的第 30" sheetId="4" r:id="rId7"/>
-    <sheet name="2021年的第 29 周" sheetId="1" r:id="rId8"/>
+    <sheet name="每天todo" sheetId="6" r:id="rId1"/>
+    <sheet name="2021年的第31" sheetId="9" r:id="rId2"/>
+    <sheet name="习惯卡" sheetId="8" r:id="rId3"/>
+    <sheet name="2分钟养成一习惯" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="check" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="作息习惯卡woop" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="下班浪费3小时计划 " sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="起床等级划分" sheetId="2" r:id="rId8"/>
+    <sheet name="2021年的第 30" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="2021年的第 29 周" sheetId="1" state="hidden" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2021年的第31'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="358">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -293,9 +298,6 @@
     <t>　2019-06-18</t>
   </si>
   <si>
-    <t>希望达成目标（wish）</t>
-  </si>
-  <si>
     <t>　　早起6：30 </t>
   </si>
   <si>
@@ -317,12 +319,6 @@
     <t>　你渴望的</t>
   </si>
   <si>
-    <t>看清改变真正阻力（o）</t>
-  </si>
-  <si>
-    <t>内心重大假设（非）</t>
-  </si>
-  <si>
     <t>瞬间你感觉疲劳，恐怖思想来临，</t>
   </si>
   <si>
@@ -342,9 +338,6 @@
   </si>
   <si>
     <t>　白日梦不什么时候开启的</t>
-  </si>
-  <si>
-    <t>与目标相反的行为</t>
   </si>
   <si>
     <t>躺在床上，继续睡觉/然后下车在改正</t>
@@ -694,10 +687,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第五关：20点回家手机房第一时间客厅：手机锁屏20分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>运动名义手机放客厅 45分钟</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -805,43 +794,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第二关：6点晚上专注吃饭，远离手机20分钟【大boss】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三关：7点地铁专注放松，远离手机20分钟【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四关：19点回小区专注跑步，手机锁屏一次【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第一关：12点中午专注吃饭，远离手机20分钟  【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六关：21点家手机放客厅 ，锁屏20分钟 【二级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八关：23点睡 手机一定放客厅，任何消息，【三级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九关：0-3点 放弃任何事情，包括看手机 和学习【大boss】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二步：6：15 跟着keep活动6：15到7：00 跑步4 【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三步：7：00阅读 30分钟 【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五步：7：30 吃饭 地铁 【一级怪兽】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -860,10 +813,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第七关：22点睡前 ，手机放客厅 锁屏20分钟 【大boss 超级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>✖ 延迟 3个小时</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -884,18 +833,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>学习区域--电脑：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>运动区-手机：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>戴上降噪耳机 +1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>打卡专注种树软件+1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -996,267 +937,561 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>晚上21点到家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每晚22点前关闭说有设备（笔记本，手机 电视 ）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每晚22点上床（读书，聊天）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每晚22：30点关灯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天早晨6点起床</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：吃饭手机开启禅定模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：吃饭手机开启禅定模式，在点餐完毕开始 read</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：到地铁手机开启禅定模式，放松一天疲累</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：在地铁最后一站，就要打开keep</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：在回家提前手机放书包，开启禅定模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：学习期间，直接看课本，原理手机 诱惑最大</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺 ：你很困了，手机一定在客厅，不解锁 不解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺 ：睡不着去朗读</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：00，你昨天提前1小时，距离目标延迟2小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23：00 比昨天提前30分钟 😄，延迟60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：闹钟响起千万不愿意---&gt;马上穿衣，洗刷 目的运动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖承诺：先运动，后读书，7：30起床，延迟 60分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖承诺  早晨一定吃早餐，连续一个月没吃了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：你8点出门 人太挤了， 说好7：30 一定马上起床</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  预先承诺：去公园跑步 300米 ，这个很轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  预先承诺 9点32到公司 延迟60分钟.早晨写代码事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ ：吃饭 睡觉时候诱惑最大，客服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信解锁---动漫 电视剧综艺界面 【轻松】，不然看凌晨4点视频【很困难】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机控解锁：21 22 23 0点 一个个全部解锁 【轻松】，不然看凌晨4点视频【很困难】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城解锁--下载浏览器--看免费动漫 电视剧综艺界面【轻松】，不然看凌晨4点视频【很困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ ：关闭网络</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ ：打开倒计时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后悔失控6小时极度困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨4点视频，感冒，失去一切未来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨5点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨6点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨7点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>✖凌晨8点视频，感冒，失去一切未来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨12点视频，感冒，失去一切未来</t>
+  </si>
+  <si>
+    <t>2021年第 35 周，8月份的第4 周 8/27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺 ：回家太晚 熬药导致23点30入睡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23：30 比昨天提前0分钟 😄，延迟90分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖   承诺 ：学习期间看50分钟综艺动漫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：30，你昨天提前-30分钟，距离目标延迟2小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 地铁 60分钟补睡，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：美杜莎诱惑也有解办法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测清单：小怪兽不解决，大boss打不到的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  在吃饭 ，睡觉，一个念头导致3小时看视频 打卡 forest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌浏览器   解锁 安全搜索  失控：-100 ，解决办法关闭电脑  完成次数+0·</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨13点视频，感冒，失去一切未来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅区--吃饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法：18点准时下班      今日睡眠故事：电脑带回家，学习目的忘记一干二净，然后看一会，变成看3小时视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法：18点准时下班      今日睡眠故事：21点加班三小时，第二天迟到三小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 地铁 60分钟补睡，【听不到闹钟声音，无法起床】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索免费的视频看免费动漫 电视剧综艺界面 -102  解决办法 &gt;打开 forest +0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖吃饭完毕在学习，吃饭前把电脑拿出卧室，原理视野</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 从开始吃饭到解释吃饭 看4小时 到凌晨23点 2点  变成消极 堕落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖凌晨12点视频，感冒，失去一切未来</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻松模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年的第 31 周</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说出你执行意图
+    今天 6点到7点下班，并且电脑不带回家（至少一周次不带回家）
+小王今日故事
+回家做晚饭，因为饭菜太热，你打开电脑，10分钟后，
+吃饭 结果无法克制吃饭看 搜索动漫 综艺界面 看4小时
+这一次至少3年事件无法拯救
+失败只会引起更大失败，唯一小成功才可以
+10年时间都不敢下定觉心，6点 点半 电脑放公司 推迟21点 22点可以
+10年时间都不敢下觉心醒，6点 点半 电脑放公司 为了学习。
+最后结果 看一眼电脑和手机 至少10年无法弥补，结果每天看
+堕落大于&gt;学习，一次堕落让10年努力失败。
+电脑最好不要放家里 1 3 5 三天才可以。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级吞噬兽：在电脑面前 吃饭 然后产生 搜索免费的视频看免费动念头   -110</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ✖一个念头导致看视频4小时后，然后1天一夜 看48小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖一个念头导致看视频4小时后，然后1天一夜 看48小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟check</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年9月8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习区域--电脑：和手机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：30，你昨天提前30分钟，距离目标延迟90分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日起床故事：自己心里说困，然后 躺下补觉，然后8点来了 解决办法：关闭闹钟后，就不要躺回去了。节省40分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：只要完成洗刷，我朗读5分钟，一页业。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步：7：00 跟着keep活动 【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步：6：30--7：00【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：只要完成朗读5，打卡keep 活动30分钟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第五步：7：30 吃饭 地铁 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：做地铁，轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖晚上22点 23点放弃任何学习和工作 不处理事情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段：极度轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你感觉麻烦，因此手机没放客厅，这次就算了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己电脑解锁了。谷歌浏览器，和客户端模式禁用，但是mac浏览器没有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家手机放客厅+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑自己解锁了-1.听手机小说。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天8点起床，-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四阶段：地狱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三阶段：困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段：轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五节点：轻松</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>✔在家：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吃饭前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把电脑拿出卧室，远离视野</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级吞噬兽：边吃饭遍看电脑和手机 -1000次，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级吞噬兽：边吃饭遍看电脑和手机 -1000次，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔在公司 或者外面：吃饭的秘密，付钱完毕--然后禅定模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 从开始吃饭到解释吃饭 看4小时 到凌晨23点 2点  变成消极 堕落</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 等待期间出现 各种念头，看小说 看综艺 全部飘出来了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望达成目标（wish）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望达成目标（wish）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>看清改变真正阻力（o）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内心重大假设（非）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与目标相反的行为</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与目标相反内心重大假设</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔吃饭专心吃饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖边吃饭遍看电脑和手机 公司 家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 不看不行，哪些商家 平台不高兴，哪怕毫无价值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 一个念头导致看视频4小时后，然后1天一夜 看48小时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 已经打开手机，并且看一分钟，一眼就离开 反正没事</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 宁愿后悔，也不愿意行动吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复100次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔1在家：吃饭前把电脑拿出卧室，远离视野</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔2在公司 ：吃饭的秘密，付钱完毕--然后禅定模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 离开60秒，堕落0.1秒传递全身。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔从座位站起来，如何抵抗美杜莎的诱惑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>成为早起者</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第一阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上21点到家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每晚22点前关闭说有设备（笔记本，手机 电视 ）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每晚22点上床（读书，聊天）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每晚22：30点关灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五节点：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天早晨6点起床</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺：吃饭手机开启禅定模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺：吃饭手机开启禅定模式，在点餐完毕开始 read</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺：到地铁手机开启禅定模式，放松一天疲累</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺：在地铁最后一站，就要打开keep</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺：在回家提前手机放书包，开启禅定模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺：学习期间，直接看课本，原理手机 诱惑最大</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺 ：你很困了，手机一定在客厅，不解锁 不解锁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺 ：睡不着去朗读</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8：00，你昨天提前1小时，距离目标延迟2小时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23：00 比昨天提前30分钟 😄，延迟60分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 承诺：闹钟响起千万不愿意---&gt;马上穿衣，洗刷 目的运动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖承诺：先运动，后读书，7：30起床，延迟 60分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖承诺  早晨一定吃早餐，连续一个月没吃了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 承诺：你8点出门 人太挤了， 说好7：30 一定马上起床</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  预先承诺：去公园跑步 300米 ，这个很轻松</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖  预先承诺 9点32到公司 延迟60分钟.早晨写代码事件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ ：吃饭 睡觉时候诱惑最大，客服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信解锁---动漫 电视剧综艺界面 【轻松】，不然看凌晨4点视频【很困难】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机控解锁：21 22 23 0点 一个个全部解锁 【轻松】，不然看凌晨4点视频【很困难】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城解锁--下载浏览器--看免费动漫 电视剧综艺界面【轻松】，不然看凌晨4点视频【很困难</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ ：关闭网络</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ ：打开倒计时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 这个无法做到，电脑放客厅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后悔失控6小时极度困难</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖凌晨4点视频，感冒，失去一切未来</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖凌晨5点视频，感冒，失去一切未来</t>
-  </si>
-  <si>
-    <t>✖凌晨6点视频，感冒，失去一切未来</t>
-  </si>
-  <si>
-    <t>✖凌晨7点视频，感冒，失去一切未来</t>
-  </si>
-  <si>
-    <t>✖凌晨8点视频，感冒，失去一切未来</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖凌晨12点视频，感冒，失去一切未来</t>
-  </si>
-  <si>
-    <t>2021年第 35 周，8月份的第4 周 8/27</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔  承诺 ：回家太晚 熬药导致23点30入睡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23：30 比昨天提前0分钟 😄，延迟90分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖   承诺 ：学习期间看50分钟综艺动漫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8：30，你昨天提前-30分钟，距离目标延迟2小时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 地铁 60分钟补睡，</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 承诺：美杜莎诱惑也有解办法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测清单：小怪兽不解决，大boss打不到的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日起床故事：自己拖延一次，后面天天拖延 ，解决办法：在闹钟之前起床。小怪兽不解决，大boss打不到的。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻松模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>困难模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖  在吃饭 ，睡觉，一个念头导致3小时看视频 打卡 forest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">youtue 看电影解锁 -100   ，解决办法：谷歌插件 +1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索免费的视频看免费动漫 电视剧综艺界面 -100  解决办法 &gt;打开 forest +0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌浏览器   解锁 安全搜索  失控：-100 ，解决办法关闭电脑  完成次数+0·</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖凌晨13点视频，感冒，失去一切未来</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅区--吃饭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题1：边吃饭遍看电脑和手机 -1000次，解决办法：手机和电脑必须拿走</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年第 36 周，9月份的第1 周 9/2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：30 比昨天提前0分钟 😄，延迟90分钟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10：30，你昨天提前-30分钟，距离目标延迟2小时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决办法：18点准时下班      今日睡眠故事：电脑带回家，学习目的忘记一干二净，然后看一会，变成看3小时视频</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原因：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决办法：18点准时下班      今日睡眠故事：21点加班三小时，第二天迟到三小时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 承诺：只要我睡醒，马上穿衣服，起床，运动，吃饭 地铁 60分钟补睡，【听不到闹钟声音，无法起床】</t>
+    <t>学会吃饭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级吞噬兽：youtue 看电影30分钟后，然后自己选择解锁自己防御程序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crontabe tab 内容不变，拦截程序保持不变</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23：30睡眠，睡前洗刷-运动，读书 不能少</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：吃饭手机开启禅定模式，战斗从晚上6点开始了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关：6点晚上专注吃饭，远离手机20分钟【二级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关：7点地铁专注放松，远离手机20分钟【三级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关：19点回小区专注跑步，手机锁屏一次【四级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九关：0-3点 放弃任何事情，包括看手机 和学习【大boss最后一关】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六关：21点家手机放客厅 ，散步30分钟【六级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七关：22点准备睡觉，如果睡不着阅读15分钟【超级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八关：23点睡：如果睡不着阅读15分钟，【大boss最后一关】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第 37 周，9月份的第2周 9/15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：吃饭手机开启禅定模式,战斗从晚上12点开始了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔  承诺：到地铁手机开启禅定模式，战斗从地铁开始了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五关：20点回家手机房第一时间客厅，如果没事干着阅读15分钟 【五级怪兽】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,6 +1664,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1513,7 +1756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1683,6 +1926,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1699,7 +1962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1838,58 +2101,97 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1898,89 +2200,74 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2266,68 +2553,1152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="2" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="45.75" customWidth="1"/>
+    <col min="5" max="6" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="47.875" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="49">
+        <v>44425</v>
+      </c>
+      <c r="I1" s="49">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="43">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E18" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E19" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="36" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C20" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C21" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C26" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B28" s="36" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" t="s">
-        <v>253</v>
+      <c r="C28" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" t="s">
+        <v>321</v>
+      </c>
+      <c r="D41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="A12:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="92"/>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="94"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="70"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+    </row>
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="73"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="76"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="73"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="76"/>
+    </row>
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="73"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="73"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="76"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="77"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+    </row>
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -2335,6 +3706,475 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="92"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="94"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="70"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+    </row>
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="69"/>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="73"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="69"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="73"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="73"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="69"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="73"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="69"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="69"/>
+    </row>
+    <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+    </row>
+    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1"/>
+  <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="116" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="117"/>
+      <c r="B6" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="117"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="117" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="117"/>
+      <c r="B9" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="117" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="117"/>
+      <c r="B11" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="117"/>
+      <c r="B13" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2353,63 +4193,63 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2418,12 +4258,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A70"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2449,31 +4325,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,198 +4357,198 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="99" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>93</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="100" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="24" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+    </row>
+    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="B15" s="105" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-    </row>
-    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="97"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="97"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="68"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="101"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="97"/>
+      <c r="B21" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="104" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
-      <c r="B21" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>110</v>
+      <c r="D21" s="97" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="97"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -2680,32 +4556,32 @@
     </row>
     <row r="40" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +4621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
@@ -2769,10 +4645,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="33">
         <v>0.70833333333333337</v>
@@ -2816,43 +4692,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
         <v>150</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>155</v>
-      </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2860,43 +4736,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
         <v>143</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" t="s">
-        <v>150</v>
-      </c>
       <c r="N3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2904,43 +4780,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" t="s">
         <v>146</v>
       </c>
-      <c r="D4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" t="s">
-        <v>150</v>
-      </c>
       <c r="N4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2948,43 +4824,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
         <v>145</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>148</v>
       </c>
-      <c r="D5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
         <v>152</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" t="s">
-        <v>150</v>
-      </c>
       <c r="M5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2993,12 +4869,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3034,19 +4910,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="106" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="109" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -3057,13 +4933,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="75"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="77"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -3072,19 +4948,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="106" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="106" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -3095,13 +4971,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -3110,17 +4986,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="106" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="106" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -3131,13 +5007,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -3146,19 +5022,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="106" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -3169,13 +5045,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -3184,45 +5060,45 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="106" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3256,817 +5132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="63.875" customWidth="1"/>
-    <col min="2" max="3" width="52.5" customWidth="1"/>
-    <col min="4" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="6" width="50.375" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
-    <col min="8" max="8" width="47.875" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="49">
-        <v>44425</v>
-      </c>
-      <c r="I1" s="49">
-        <v>44424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="43">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="F2" s="52">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0.375</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="61"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="62"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>306</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="A12:D13"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
@@ -4083,55 +5149,55 @@
   <sheetData>
     <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="93" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="97"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -4139,15 +5205,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -4161,7 +5227,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -4173,7 +5239,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -4181,78 +5247,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="94"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="100"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="100"/>
+      <c r="D14" s="76"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="100"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="100"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="100"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="101"/>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -4269,92 +5335,92 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="94" t="s">
+      <c r="B23" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="70" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4389,286 +5455,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="91"/>
-    </row>
-    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="97"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="98"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="94"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-    </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="100"/>
-    </row>
-    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="98"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="100"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="98"/>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="100"/>
-    </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="100"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="100"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="101"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-    </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A18"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>